--- a/Project Outputs for EpicPlus/EpicPlus_initial_order.xlsx
+++ b/Project Outputs for EpicPlus/EpicPlus_initial_order.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="245">
   <si>
     <t>Comment</t>
   </si>
@@ -638,14 +638,126 @@
   </si>
   <si>
     <t>Approx Total</t>
+  </si>
+  <si>
+    <t>New Parts</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=LMV982MMCT-ND</t>
+  </si>
+  <si>
+    <t>LMV982MMCT-ND</t>
+  </si>
+  <si>
+    <t>LMV982MM/NOPB</t>
+  </si>
+  <si>
+    <t>IC OPAMP 1.8V DUAL RRIO 10MSOP</t>
+  </si>
+  <si>
+    <t>opamp</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=576-1049-1-ND</t>
+  </si>
+  <si>
+    <t>576-1049-1-ND</t>
+  </si>
+  <si>
+    <t>LM4041CYM3-ADJ TR</t>
+  </si>
+  <si>
+    <t>IC REF PREC ADJ MICROPWR SOT23</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=0600-00039-ND</t>
+  </si>
+  <si>
+    <t>0600-00039-ND</t>
+  </si>
+  <si>
+    <t>0600-00039</t>
+  </si>
+  <si>
+    <t>ANTENNA 2.45GHZ 7" RA U.FL PLUG</t>
+  </si>
+  <si>
+    <t>JF1R6-CR3-4I-ND</t>
+  </si>
+  <si>
+    <t>JF1R6-CR3-4I</t>
+  </si>
+  <si>
+    <t>RP-SMA Female to Ultra Miniature Coaxial Femal</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=JF1R6-CR3-4I-ND</t>
+  </si>
+  <si>
+    <t>68k</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P68.0KHCT-ND</t>
+  </si>
+  <si>
+    <t>P68.0KHCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF6802V</t>
+  </si>
+  <si>
+    <t>RES 68.0K OHM 1/10W 1% 0603 SMD</t>
+  </si>
+  <si>
+    <t>22k</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P22.0KHCT-ND</t>
+  </si>
+  <si>
+    <t>P22.0KHCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF2202V</t>
+  </si>
+  <si>
+    <t>RES 22.0K OHM 1/10W 1% 0603 SM</t>
+  </si>
+  <si>
+    <t>150k</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P150KHCT-ND</t>
+  </si>
+  <si>
+    <t>P150KHCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1503V</t>
+  </si>
+  <si>
+    <t>RES 150K OHM 1/10W 1% 0603 SMD</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=621K-ND</t>
+  </si>
+  <si>
+    <t>621K-ND</t>
+  </si>
+  <si>
+    <t>BRACKET RT ANG MOUNT 4-40 STEEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1150,13 +1262,14 @@
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1494,14 +1607,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3630" ySplit="645" topLeftCell="D18" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="3630" ySplit="645" topLeftCell="D67" activePane="topRight"/>
       <selection activeCell="B25" sqref="B25"/>
-      <selection pane="topRight" activeCell="F3" sqref="F3"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:M49"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1:M1"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="A54:XFD72"/>
+      <selection pane="bottomRight" activeCell="M92" sqref="F73:M92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2837,13 +2950,609 @@
     <row r="48" spans="1:13">
       <c r="M48" s="5"/>
     </row>
-    <row r="49" spans="11:13">
+    <row r="49" spans="1:13">
       <c r="K49" s="3" t="s">
         <v>207</v>
       </c>
       <c r="M49" s="5">
         <f>SUM(M3:M46)</f>
         <v>268.74799999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J73" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="K73">
+        <f t="shared" ref="K73" si="6">$B$25*C73*2</f>
+        <v>10</v>
+      </c>
+      <c r="M73" s="5">
+        <f t="shared" ref="M73:M75" si="7">K73*J73</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J74" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="K74">
+        <f t="shared" ref="K74" si="8">C74*$B$25</f>
+        <v>10</v>
+      </c>
+      <c r="M74" s="5">
+        <f t="shared" si="7"/>
+        <v>8.2999999999999989</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G75" t="s">
+        <v>215</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J75" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="K75">
+        <f t="shared" ref="K75" si="9">$B$25*C75*2</f>
+        <v>10</v>
+      </c>
+      <c r="M75" s="5">
+        <f t="shared" si="7"/>
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J76" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="K76">
+        <f>$B$25*C76</f>
+        <v>5</v>
+      </c>
+      <c r="M76" s="5">
+        <f>K76*J76</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J77" s="6">
+        <v>1.02</v>
+      </c>
+      <c r="K77">
+        <f t="shared" ref="K77" si="10">C77*$B$25</f>
+        <v>5</v>
+      </c>
+      <c r="M77" s="5">
+        <f t="shared" ref="M77:M79" si="11">K77*J77</f>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="B78" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J78" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="K78">
+        <f>$B$25*C78+10</f>
+        <v>30</v>
+      </c>
+      <c r="M78" s="5">
+        <f t="shared" si="11"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="B79" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J79" s="6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K79">
+        <f t="shared" ref="K79" si="12">$B$25*C79*2</f>
+        <v>20</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M79" s="5">
+        <f t="shared" si="11"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J80" s="6">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="K80">
+        <f>$B$25*C80*2</f>
+        <v>20</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M80" s="5">
+        <f>K80*J80</f>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="B81" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J81" s="6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K81">
+        <f>$B$25*C81*2</f>
+        <v>100</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M81" s="5">
+        <f>K81*J81</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="B82" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J82" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K82">
+        <f>$B$25*C82*2</f>
+        <v>20</v>
+      </c>
+      <c r="L82" s="3"/>
+      <c r="M82" s="5">
+        <f>K82*J82</f>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="B83" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J83" s="6">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="K83">
+        <f>$B$25*C83*2</f>
+        <v>20</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M83" s="5">
+        <f>K83*J83</f>
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="B84" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J84" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="K84">
+        <f>$B$25*C84*2</f>
+        <v>100</v>
+      </c>
+      <c r="M84" s="5">
+        <f>K84*J84</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="B85" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J85" s="6">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="K85">
+        <f>$B$25*C85*2</f>
+        <v>30</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M85" s="5">
+        <f>K85*J85</f>
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="B86" t="s">
+        <v>227</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J86" s="6">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="K86">
+        <f>$B$25*C86*2</f>
+        <v>50</v>
+      </c>
+      <c r="M86" s="5">
+        <f>K86*J86</f>
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="B87" t="s">
+        <v>232</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J87" s="6">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="K87">
+        <f>$B$25*C87*2</f>
+        <v>50</v>
+      </c>
+      <c r="L87" s="3"/>
+      <c r="M87" s="5">
+        <f>K87*J87</f>
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="B88" t="s">
+        <v>237</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J88" s="6">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="K88">
+        <f>$B$25*C88*2</f>
+        <v>50</v>
+      </c>
+      <c r="M88" s="5">
+        <f>K88*J88</f>
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" t="s">
+        <v>218</v>
+      </c>
+      <c r="M89" s="5"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="F90" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J90" s="5">
+        <v>10.65</v>
+      </c>
+      <c r="K90">
+        <v>5</v>
+      </c>
+      <c r="M90" s="5">
+        <f t="shared" ref="M90:M92" si="13">K90*J90</f>
+        <v>53.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="F91" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J91" s="5">
+        <v>5</v>
+      </c>
+      <c r="K91">
+        <v>5</v>
+      </c>
+      <c r="M91" s="5">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="F92" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H92" s="3">
+        <v>621</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J92" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K92">
+        <v>40</v>
+      </c>
+      <c r="M92" s="5">
+        <f t="shared" si="13"/>
+        <v>11.200000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2883,8 +3592,26 @@
     <hyperlink ref="F44" r:id="rId33"/>
     <hyperlink ref="G46" r:id="rId34" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=541-5.10MHCT-ND"/>
     <hyperlink ref="G47" r:id="rId35" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=541-7.50MHCT-ND"/>
+    <hyperlink ref="F81" r:id="rId36"/>
+    <hyperlink ref="F82" r:id="rId37"/>
+    <hyperlink ref="F73" r:id="rId38"/>
+    <hyperlink ref="F74" r:id="rId39"/>
+    <hyperlink ref="F75" r:id="rId40"/>
+    <hyperlink ref="F76" r:id="rId41"/>
+    <hyperlink ref="F77" r:id="rId42"/>
+    <hyperlink ref="F78" r:id="rId43"/>
+    <hyperlink ref="F79" r:id="rId44"/>
+    <hyperlink ref="F90" r:id="rId45"/>
+    <hyperlink ref="F91" r:id="rId46"/>
+    <hyperlink ref="F85" r:id="rId47"/>
+    <hyperlink ref="F83" r:id="rId48"/>
+    <hyperlink ref="F80" r:id="rId49"/>
+    <hyperlink ref="F86" r:id="rId50"/>
+    <hyperlink ref="F87" r:id="rId51"/>
+    <hyperlink ref="F88" r:id="rId52"/>
+    <hyperlink ref="F92" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId36"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId54"/>
 </worksheet>
 </file>
--- a/Project Outputs for EpicPlus/EpicPlus_initial_order.xlsx
+++ b/Project Outputs for EpicPlus/EpicPlus_initial_order.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="258">
   <si>
     <t>Comment</t>
   </si>
@@ -749,6 +749,45 @@
   </si>
   <si>
     <t>BRACKET RT ANG MOUNT 4-40 STEEL</t>
+  </si>
+  <si>
+    <t>Next Order</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=511-1465-1-ND</t>
+  </si>
+  <si>
+    <t>511-1465-1-ND</t>
+  </si>
+  <si>
+    <t>TCA1A226M8R</t>
+  </si>
+  <si>
+    <t>CAP TANT 22UF 10V 20% SMD</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=CP-3502-ND</t>
+  </si>
+  <si>
+    <t>CP-3502-ND</t>
+  </si>
+  <si>
+    <t>SP-3501</t>
+  </si>
+  <si>
+    <t>CONN 3.5MM MALE STEREO PLUG</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=67-1945-ND</t>
+  </si>
+  <si>
+    <t>67-1945-ND</t>
+  </si>
+  <si>
+    <t>CLS-PC11A125S01R</t>
+  </si>
+  <si>
+    <t>SWITCH PB ILLUM SPST 3A RED</t>
   </si>
 </sst>
 </file>
@@ -757,7 +796,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1269,7 +1308,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1607,14 +1646,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N92"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="3630" ySplit="645" topLeftCell="D67" activePane="topRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3630" ySplit="645" topLeftCell="C70" activePane="bottomRight"/>
       <selection activeCell="B25" sqref="B25"/>
       <selection pane="topRight" activeCell="F1" sqref="F1:M1"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="A54:XFD72"/>
-      <selection pane="bottomRight" activeCell="M92" sqref="F73:M92"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
+      <selection pane="bottomRight" activeCell="M96" sqref="F96:M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3207,14 +3246,14 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="K80">
-        <f>$B$25*C80*2</f>
+        <f t="shared" ref="K80:K88" si="13">$B$25*C80*2</f>
         <v>20</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>127</v>
       </c>
       <c r="M80" s="5">
-        <f>K80*J80</f>
+        <f t="shared" ref="M80:M88" si="14">K80*J80</f>
         <v>1.98</v>
       </c>
     </row>
@@ -3241,14 +3280,14 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K81">
-        <f>$B$25*C81*2</f>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>127</v>
       </c>
       <c r="M81" s="5">
-        <f>K81*J81</f>
+        <f t="shared" si="14"/>
         <v>4.5</v>
       </c>
     </row>
@@ -3275,12 +3314,12 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="K82">
-        <f>$B$25*C82*2</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="L82" s="3"/>
       <c r="M82" s="5">
-        <f>K82*J82</f>
+        <f t="shared" si="14"/>
         <v>11.6</v>
       </c>
     </row>
@@ -3307,14 +3346,14 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="K83">
-        <f>$B$25*C83*2</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>127</v>
       </c>
       <c r="M83" s="5">
-        <f>K83*J83</f>
+        <f t="shared" si="14"/>
         <v>1.46</v>
       </c>
     </row>
@@ -3341,11 +3380,11 @@
         <v>0.01</v>
       </c>
       <c r="K84">
-        <f>$B$25*C84*2</f>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="M84" s="5">
-        <f>K84*J84</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -3372,14 +3411,14 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="K85">
-        <f>$B$25*C85*2</f>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>127</v>
       </c>
       <c r="M85" s="5">
-        <f>K85*J85</f>
+        <f t="shared" si="14"/>
         <v>2.19</v>
       </c>
     </row>
@@ -3406,11 +3445,11 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="K86">
-        <f>$B$25*C86*2</f>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="M86" s="5">
-        <f>K86*J86</f>
+        <f t="shared" si="14"/>
         <v>3.65</v>
       </c>
     </row>
@@ -3437,12 +3476,12 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="K87">
-        <f>$B$25*C87*2</f>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="L87" s="3"/>
       <c r="M87" s="5">
-        <f>K87*J87</f>
+        <f t="shared" si="14"/>
         <v>3.65</v>
       </c>
     </row>
@@ -3469,11 +3508,11 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="K88">
-        <f>$B$25*C88*2</f>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="M88" s="5">
-        <f>K88*J88</f>
+        <f t="shared" si="14"/>
         <v>3.65</v>
       </c>
     </row>
@@ -3503,7 +3542,7 @@
         <v>5</v>
       </c>
       <c r="M90" s="5">
-        <f t="shared" ref="M90:M92" si="13">K90*J90</f>
+        <f t="shared" ref="M90:M92" si="15">K90*J90</f>
         <v>53.25</v>
       </c>
     </row>
@@ -3527,7 +3566,7 @@
         <v>5</v>
       </c>
       <c r="M91" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
     </row>
@@ -3551,8 +3590,89 @@
         <v>40</v>
       </c>
       <c r="M92" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11.200000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J96" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="K96">
+        <f t="shared" ref="K96" si="16">$B$25*C96*2</f>
+        <v>20</v>
+      </c>
+      <c r="M96" s="5">
+        <f t="shared" ref="M96:M98" si="17">K96*J96</f>
+        <v>6.6000000000000005</v>
+      </c>
+    </row>
+    <row r="97" spans="6:13">
+      <c r="F97" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J97" s="5">
+        <v>1.04</v>
+      </c>
+      <c r="K97">
+        <v>15</v>
+      </c>
+      <c r="M97" s="5">
+        <f t="shared" si="17"/>
+        <v>15.600000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="6:13">
+      <c r="F98" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="J98" s="5">
+        <v>3.21</v>
+      </c>
+      <c r="K98">
+        <v>5</v>
+      </c>
+      <c r="M98" s="5">
+        <f t="shared" si="17"/>
+        <v>16.05</v>
       </c>
     </row>
   </sheetData>
@@ -3610,8 +3730,11 @@
     <hyperlink ref="F87" r:id="rId51"/>
     <hyperlink ref="F88" r:id="rId52"/>
     <hyperlink ref="F92" r:id="rId53"/>
+    <hyperlink ref="F96" r:id="rId54"/>
+    <hyperlink ref="F97" r:id="rId55"/>
+    <hyperlink ref="F98" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId54"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId57"/>
 </worksheet>
 </file>